--- a/VisDecisionReview/Table2.xlsx
+++ b/VisDecisionReview/Table2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="132">
   <si>
     <t>Graphical decision science</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>E1perts were more confident with uncertainty data</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;H2&lt;/h2&gt;</t>
   </si>
 </sst>
 </file>
@@ -424,12 +430,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -444,8 +456,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -888,114 +901,22 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>2014</v>
-      </c>
-      <c r="C2">
-        <v>67</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG2">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>1991</v>
+        <v>2014</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1022,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1046,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1061,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -1082,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="AF3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG3">
         <v>2</v>
@@ -1090,13 +1011,13 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>2015</v>
+        <v>1991</v>
       </c>
       <c r="C4">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1117,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1147,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1162,28 +1083,28 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
+      <c r="AB4" t="s">
+        <v>34</v>
       </c>
       <c r="AC4" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" t="s">
-        <v>34</v>
+      <c r="AD4">
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>1</v>
       </c>
       <c r="AF4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AG4">
         <v>2</v>
@@ -1191,13 +1112,13 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1218,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1227,22 +1148,22 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1254,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1263,28 +1184,28 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AB5" t="s">
-        <v>34</v>
+      <c r="AB5">
+        <v>0</v>
       </c>
       <c r="AC5" t="s">
         <v>34</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
+      <c r="AD5" t="s">
+        <v>34</v>
       </c>
       <c r="AE5">
         <v>1</v>
       </c>
       <c r="AF5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG5">
         <v>2</v>
@@ -1292,13 +1213,13 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>1994</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1316,34 +1237,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1358,16 +1279,16 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1378,14 +1299,14 @@
       <c r="AC6" t="s">
         <v>34</v>
       </c>
-      <c r="AD6" t="s">
-        <v>34</v>
+      <c r="AD6">
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AG6">
         <v>2</v>
@@ -1393,13 +1314,13 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>1998</v>
+        <v>2011</v>
       </c>
       <c r="C7">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1411,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1438,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1453,22 +1374,22 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1479,14 +1400,14 @@
       <c r="AC7" t="s">
         <v>34</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
+      <c r="AD7" t="s">
+        <v>34</v>
       </c>
       <c r="AE7">
         <v>1</v>
       </c>
       <c r="AF7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG7">
         <v>2</v>
@@ -1494,13 +1415,13 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>319</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1527,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1545,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1557,22 +1478,22 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="s">
         <v>34</v>
@@ -1580,14 +1501,14 @@
       <c r="AC8" t="s">
         <v>34</v>
       </c>
-      <c r="AD8" t="s">
-        <v>34</v>
+      <c r="AD8">
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>1</v>
       </c>
       <c r="AF8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AG8">
         <v>2</v>
@@ -1595,13 +1516,13 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="C9">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1681,14 +1602,14 @@
       <c r="AC9" t="s">
         <v>34</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
+      <c r="AD9" t="s">
+        <v>34</v>
       </c>
       <c r="AE9">
         <v>1</v>
       </c>
       <c r="AF9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AG9">
         <v>2</v>
@@ -1696,13 +1617,13 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>1990</v>
+        <v>2006</v>
       </c>
       <c r="C10">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1729,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1774,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="s">
         <v>34</v>
@@ -1782,14 +1703,14 @@
       <c r="AC10" t="s">
         <v>34</v>
       </c>
-      <c r="AD10" t="s">
-        <v>34</v>
+      <c r="AD10">
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>1</v>
       </c>
       <c r="AF10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AG10">
         <v>2</v>
@@ -1797,13 +1718,13 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1833,16 +1754,16 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1851,28 +1772,28 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1890,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="AF11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AG11">
         <v>2</v>
@@ -1898,10 +1819,10 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -1925,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1964,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -1976,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="s">
         <v>34</v>
@@ -1991,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="AF12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG12">
         <v>2</v>
@@ -1999,13 +1920,13 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2047,37 +1968,37 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="s">
         <v>34</v>
@@ -2092,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="AF13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AG13">
         <v>2</v>
@@ -2100,13 +2021,13 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2148,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2186,11 +2107,14 @@
       <c r="AC14" t="s">
         <v>34</v>
       </c>
+      <c r="AD14" t="s">
+        <v>34</v>
+      </c>
       <c r="AE14">
         <v>1</v>
       </c>
       <c r="AF14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AG14">
         <v>2</v>
@@ -2198,13 +2122,13 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="C15">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2219,19 +2143,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2240,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2270,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2278,6 +2202,9 @@
       <c r="AA15">
         <v>0</v>
       </c>
+      <c r="AB15" t="s">
+        <v>34</v>
+      </c>
       <c r="AC15" t="s">
         <v>34</v>
       </c>
@@ -2285,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="AF15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG15">
         <v>2</v>
@@ -2293,13 +2220,13 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>2012</v>
+        <v>1996</v>
       </c>
       <c r="C16">
-        <v>399</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2326,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2335,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2359,34 +2286,28 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
-      <c r="AB16" t="s">
-        <v>34</v>
-      </c>
       <c r="AC16" t="s">
         <v>34</v>
       </c>
-      <c r="AD16" t="s">
-        <v>34</v>
-      </c>
       <c r="AE16">
         <v>1</v>
       </c>
       <c r="AF16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG16">
         <v>2</v>
@@ -2394,13 +2315,13 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>399</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2451,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -2460,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -2480,11 +2401,14 @@
       <c r="AC17" t="s">
         <v>34</v>
       </c>
+      <c r="AD17" t="s">
+        <v>34</v>
+      </c>
       <c r="AE17">
         <v>1</v>
       </c>
       <c r="AF17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AG17">
         <v>2</v>
@@ -2492,55 +2416,55 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C18">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2549,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -2570,7 +2494,10 @@
         <v>1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>34</v>
       </c>
       <c r="AC18" t="s">
         <v>34</v>
@@ -2579,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="AF18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG18">
         <v>2</v>
@@ -2587,13 +2514,13 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2602,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2617,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2632,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2641,16 +2568,16 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -2659,28 +2586,22 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="s">
         <v>34</v>
       </c>
-      <c r="AD19" t="s">
-        <v>34</v>
-      </c>
       <c r="AE19">
         <v>1</v>
       </c>
       <c r="AF19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AG19">
         <v>2</v>
@@ -2688,13 +2609,13 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C20">
-        <v>473</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2703,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2718,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2727,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2742,40 +2663,46 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>1</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>34</v>
       </c>
       <c r="AC20" t="s">
         <v>34</v>
       </c>
+      <c r="AD20" t="s">
+        <v>34</v>
+      </c>
       <c r="AE20">
         <v>1</v>
       </c>
       <c r="AF20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG20">
         <v>2</v>
@@ -2783,13 +2710,13 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>473</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2801,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2816,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2825,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2846,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -2866,14 +2793,11 @@
       <c r="AC21" t="s">
         <v>34</v>
       </c>
-      <c r="AD21" t="s">
-        <v>34</v>
-      </c>
       <c r="AE21">
         <v>1</v>
       </c>
       <c r="AF21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG21">
         <v>2</v>
@@ -2881,13 +2805,13 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C22">
-        <v>492</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2899,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2908,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2926,49 +2850,52 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>1</v>
       </c>
+      <c r="AC22" t="s">
+        <v>34</v>
+      </c>
       <c r="AD22" t="s">
         <v>34</v>
       </c>
       <c r="AE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AG22">
         <v>2</v>
@@ -2976,13 +2903,13 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="C23">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3063,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="AF23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG23">
         <v>2</v>
@@ -3074,10 +3001,10 @@
         <v>76</v>
       </c>
       <c r="B24">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="C24">
-        <v>269</v>
+        <v>532</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3158,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="AF24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG24">
         <v>2</v>
@@ -3166,13 +3093,13 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3232,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -3244,19 +3171,16 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
         <v>34</v>
       </c>
       <c r="AE25">
         <v>2</v>
       </c>
       <c r="AF25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AG25">
         <v>2</v>
@@ -3264,13 +3188,13 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="C26">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3330,10 +3254,10 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3342,16 +3266,19 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="s">
         <v>34</v>
       </c>
       <c r="AE26">
         <v>2</v>
       </c>
       <c r="AF26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AG26">
         <v>2</v>
@@ -3359,13 +3286,13 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3403,50 +3330,50 @@
       <c r="O27">
         <v>0</v>
       </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
-      <c r="AB27" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>34</v>
       </c>
       <c r="AE27">
         <v>2</v>
       </c>
       <c r="AF27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG27">
         <v>2</v>
@@ -3454,13 +3381,13 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="C28">
-        <v>451</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3472,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3493,22 +3420,19 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -3526,22 +3450,25 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>1</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AB28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="s">
         <v>34</v>
       </c>
       <c r="AE28">
         <v>2</v>
       </c>
       <c r="AF28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AG28">
         <v>2</v>
@@ -3552,10 +3479,10 @@
         <v>85</v>
       </c>
       <c r="B29">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C29">
-        <v>246</v>
+        <v>451</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3636,7 +3563,7 @@
         <v>2</v>
       </c>
       <c r="AF29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG29">
         <v>2</v>
@@ -3644,13 +3571,13 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C30">
-        <v>864</v>
+        <v>246</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3662,10 +3589,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3683,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3719,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -3731,7 +3658,7 @@
         <v>2</v>
       </c>
       <c r="AF30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG30">
         <v>2</v>
@@ -3739,19 +3666,19 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B31">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C31">
-        <v>4248</v>
+        <v>864</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3796,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>1</v>
@@ -3814,10 +3741,10 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="s">
         <v>34</v>
@@ -3826,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="AF31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AG31">
         <v>2</v>
@@ -3834,13 +3761,13 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C32">
-        <v>875</v>
+        <v>4248</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3914,14 +3841,14 @@
       <c r="AA32">
         <v>0</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>34</v>
       </c>
       <c r="AE32">
         <v>2</v>
       </c>
       <c r="AF32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AG32">
         <v>2</v>
@@ -3929,13 +3856,13 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B33">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C33">
-        <v>2601</v>
+        <v>875</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4009,9 +3936,6 @@
       <c r="AA33">
         <v>0</v>
       </c>
-      <c r="AB33" t="s">
-        <v>34</v>
-      </c>
       <c r="AC33" t="s">
         <v>34</v>
       </c>
@@ -4019,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="AF33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG33">
         <v>2</v>
@@ -4027,13 +3951,13 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B34">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>2601</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4045,10 +3969,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4072,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -4081,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -4096,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -4113,14 +4037,11 @@
       <c r="AC34" t="s">
         <v>34</v>
       </c>
-      <c r="AD34" t="s">
-        <v>34</v>
-      </c>
       <c r="AE34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG34">
         <v>2</v>
@@ -4128,13 +4049,13 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B35">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4194,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>1</v>
@@ -4221,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="AF35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG35">
         <v>2</v>
@@ -4229,13 +4150,13 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B36">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="C36">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4286,28 +4207,28 @@
         <v>1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="s">
         <v>34</v>
@@ -4322,7 +4243,7 @@
         <v>3</v>
       </c>
       <c r="AF36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AG36">
         <v>2</v>
@@ -4330,13 +4251,13 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B37">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C37">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4378,22 +4299,22 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
         <v>1</v>
@@ -4411,13 +4332,19 @@
         <v>1</v>
       </c>
       <c r="AB37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD37" t="s">
         <v>34</v>
       </c>
       <c r="AE37">
         <v>3</v>
       </c>
       <c r="AF37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG37">
         <v>2</v>
@@ -4425,13 +4352,13 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B38">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C38">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4458,13 +4385,13 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -4473,22 +4400,22 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
         <v>1</v>
@@ -4506,16 +4433,13 @@
         <v>1</v>
       </c>
       <c r="AB38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC38" t="s">
         <v>34</v>
       </c>
       <c r="AE38">
         <v>3</v>
       </c>
       <c r="AF38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG38">
         <v>2</v>
@@ -4523,13 +4447,13 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C39">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -4559,10 +4483,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -4607,16 +4531,13 @@
         <v>34</v>
       </c>
       <c r="AC39" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD39" t="s">
         <v>34</v>
       </c>
       <c r="AE39">
         <v>3</v>
       </c>
       <c r="AF39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG39">
         <v>2</v>
@@ -4624,19 +4545,19 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C40">
-        <v>1349</v>
+        <v>86</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4657,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -4717,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="AF40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG40">
         <v>2</v>
@@ -4725,13 +4646,13 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>1349</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4773,22 +4694,22 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41">
         <v>1</v>
@@ -4800,22 +4721,25 @@
         <v>1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41" t="s">
         <v>34</v>
       </c>
       <c r="AC41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD41" t="s">
         <v>34</v>
       </c>
       <c r="AE41">
         <v>3</v>
       </c>
       <c r="AF41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AG41">
         <v>2</v>
@@ -4823,13 +4747,13 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B42">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="C42">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4880,13 +4804,13 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42">
         <v>1</v>
@@ -4895,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -4907,16 +4831,13 @@
         <v>34</v>
       </c>
       <c r="AC42" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD42" t="s">
         <v>34</v>
       </c>
       <c r="AE42">
         <v>3</v>
       </c>
       <c r="AF42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG42">
         <v>2</v>
@@ -4924,13 +4845,13 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B43">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="C43">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4957,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -4972,22 +4893,22 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
         <v>1</v>
@@ -4996,25 +4917,28 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43">
         <v>1</v>
       </c>
       <c r="AA43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="s">
         <v>34</v>
       </c>
       <c r="AC43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD43" t="s">
         <v>34</v>
       </c>
       <c r="AE43">
         <v>3</v>
       </c>
       <c r="AF43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AG43">
         <v>2</v>
@@ -5022,13 +4946,13 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C44">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -5055,19 +4979,19 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -5076,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -5100,19 +5024,19 @@
         <v>1</v>
       </c>
       <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>34</v>
       </c>
       <c r="AC44" t="s">
         <v>34</v>
       </c>
       <c r="AE44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG44">
         <v>2</v>
@@ -5120,13 +5044,13 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B45">
         <v>2009</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -5165,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -5186,19 +5110,19 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -5210,7 +5134,7 @@
         <v>4</v>
       </c>
       <c r="AF45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG45">
         <v>2</v>
@@ -5218,13 +5142,13 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="C46">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -5263,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -5308,7 +5232,7 @@
         <v>4</v>
       </c>
       <c r="AF46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AG46">
         <v>2</v>
@@ -5316,19 +5240,19 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B47">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C47">
-        <v>504</v>
+        <v>60</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5373,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -5406,7 +5330,7 @@
         <v>4</v>
       </c>
       <c r="AF47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AG47">
         <v>2</v>
@@ -5414,13 +5338,13 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B48">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>504</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -5471,13 +5395,13 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -5498,16 +5422,13 @@
         <v>0</v>
       </c>
       <c r="AC48" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD48" t="s">
         <v>34</v>
       </c>
       <c r="AE48">
         <v>4</v>
       </c>
       <c r="AF48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG48">
         <v>2</v>
@@ -5515,19 +5436,19 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B49">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="C49">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5536,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -5560,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -5572,16 +5493,16 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -5590,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <v>1</v>
       </c>
-      <c r="AB49" t="s">
-        <v>34</v>
+      <c r="AB49">
+        <v>0</v>
       </c>
       <c r="AC49" t="s">
         <v>34</v>
@@ -5608,7 +5529,7 @@
         <v>4</v>
       </c>
       <c r="AF49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG49">
         <v>2</v>
@@ -5616,40 +5537,40 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B50">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5658,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -5676,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50">
         <v>1</v>
@@ -5709,7 +5630,7 @@
         <v>4</v>
       </c>
       <c r="AF50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AG50">
         <v>2</v>
@@ -5720,10 +5641,10 @@
         <v>127</v>
       </c>
       <c r="B51">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5810,9 +5731,110 @@
         <v>4</v>
       </c>
       <c r="AF51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
+      <c r="A52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52">
+        <v>2016</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE52">
+        <v>4</v>
+      </c>
+      <c r="AF52" t="s">
         <v>129</v>
       </c>
-      <c r="AG51">
+      <c r="AG52">
         <v>2</v>
       </c>
     </row>

--- a/VisDecisionReview/Table2.xlsx
+++ b/VisDecisionReview/Table2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Table2.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="132">
   <si>
     <t>Graphical decision science</t>
   </si>
@@ -421,10 +421,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -453,14 +469,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -793,7 +813,7 @@
   <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -903,9 +923,101 @@
       <c r="A2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
         <v>131</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -5840,6 +5952,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/VisDecisionReview/Table2.xlsx
+++ b/VisDecisionReview/Table2.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="132">
-  <si>
-    <t>Graphical decision science</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
   <si>
     <t>Year</t>
   </si>
@@ -411,10 +408,7 @@
     <t>E1perts were more confident with uncertainty data</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;H2&lt;/h2&gt;</t>
+    <t>Authors</t>
   </si>
 </sst>
 </file>
@@ -446,18 +440,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -469,18 +457,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -813,121 +804,121 @@
   <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:AG2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>2014</v>
+      </c>
+      <c r="C2">
+        <v>67</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1002,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
         <v>34</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>35</v>
       </c>
       <c r="AG2">
         <v>2</v>
@@ -1022,7 +1013,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2014</v>
@@ -1103,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="AB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
         <v>34</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>35</v>
       </c>
       <c r="AG3">
         <v>2</v>
@@ -1123,7 +1114,7 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1991</v>
@@ -1204,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1216,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="AF4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG4">
         <v>2</v>
@@ -1224,7 +1215,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>2015</v>
@@ -1308,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="AC5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE5">
         <v>1</v>
       </c>
       <c r="AF5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG5">
         <v>2</v>
@@ -1325,7 +1316,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>1994</v>
@@ -1406,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1418,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG6">
         <v>2</v>
@@ -1426,7 +1417,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>2011</v>
@@ -1507,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE7">
         <v>1</v>
       </c>
       <c r="AF7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG7">
         <v>2</v>
@@ -1527,7 +1518,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>1998</v>
@@ -1608,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1620,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="AF8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG8">
         <v>2</v>
@@ -1628,7 +1619,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>1997</v>
@@ -1709,19 +1700,19 @@
         <v>1</v>
       </c>
       <c r="AB9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE9">
         <v>1</v>
       </c>
       <c r="AF9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG9">
         <v>2</v>
@@ -1729,7 +1720,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>2006</v>
@@ -1810,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="AB10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1822,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="AF10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG10">
         <v>2</v>
@@ -1830,7 +1821,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1990</v>
@@ -1911,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE11">
         <v>1</v>
       </c>
       <c r="AF11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG11">
         <v>2</v>
@@ -1931,7 +1922,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>2007</v>
@@ -2012,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE12">
         <v>1</v>
       </c>
       <c r="AF12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG12">
         <v>2</v>
@@ -2032,7 +2023,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>2010</v>
@@ -2113,19 +2104,19 @@
         <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE13">
         <v>1</v>
       </c>
       <c r="AF13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG13">
         <v>2</v>
@@ -2133,7 +2124,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>2008</v>
@@ -2214,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="AB14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE14">
         <v>1</v>
       </c>
       <c r="AF14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG14">
         <v>2</v>
@@ -2234,7 +2225,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>2001</v>
@@ -2315,16 +2306,16 @@
         <v>0</v>
       </c>
       <c r="AB15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE15">
         <v>1</v>
       </c>
       <c r="AF15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG15">
         <v>2</v>
@@ -2332,7 +2323,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>1996</v>
@@ -2413,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="AC16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE16">
         <v>1</v>
       </c>
       <c r="AF16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG16">
         <v>2</v>
@@ -2427,7 +2418,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>2012</v>
@@ -2508,19 +2499,19 @@
         <v>0</v>
       </c>
       <c r="AB17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE17">
         <v>1</v>
       </c>
       <c r="AF17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG17">
         <v>2</v>
@@ -2528,7 +2519,7 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>2006</v>
@@ -2609,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="AB18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE18">
         <v>1</v>
       </c>
       <c r="AF18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG18">
         <v>2</v>
@@ -2626,7 +2617,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>2014</v>
@@ -2707,13 +2698,13 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE19">
         <v>1</v>
       </c>
       <c r="AF19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG19">
         <v>2</v>
@@ -2721,7 +2712,7 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <v>2007</v>
@@ -2802,19 +2793,19 @@
         <v>0</v>
       </c>
       <c r="AB20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE20">
         <v>1</v>
       </c>
       <c r="AF20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG20">
         <v>2</v>
@@ -2822,7 +2813,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>2005</v>
@@ -2903,13 +2894,13 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE21">
         <v>1</v>
       </c>
       <c r="AF21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG21">
         <v>2</v>
@@ -2917,7 +2908,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <v>2011</v>
@@ -2998,16 +2989,16 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE22">
         <v>1</v>
       </c>
       <c r="AF22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG22">
         <v>2</v>
@@ -3015,7 +3006,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>2005</v>
@@ -3096,13 +3087,13 @@
         <v>1</v>
       </c>
       <c r="AD23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE23">
         <v>2</v>
       </c>
       <c r="AF23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG23">
         <v>2</v>
@@ -3110,7 +3101,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24">
         <v>1997</v>
@@ -3191,13 +3182,13 @@
         <v>1</v>
       </c>
       <c r="AD24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE24">
         <v>2</v>
       </c>
       <c r="AF24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG24">
         <v>2</v>
@@ -3205,7 +3196,7 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>2003</v>
@@ -3286,13 +3277,13 @@
         <v>1</v>
       </c>
       <c r="AD25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE25">
         <v>2</v>
       </c>
       <c r="AF25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG25">
         <v>2</v>
@@ -3300,7 +3291,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26">
         <v>2000</v>
@@ -3381,16 +3372,16 @@
         <v>0</v>
       </c>
       <c r="AB26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE26">
         <v>2</v>
       </c>
       <c r="AF26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG26">
         <v>2</v>
@@ -3398,7 +3389,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>2006</v>
@@ -3479,13 +3470,13 @@
         <v>1</v>
       </c>
       <c r="AD27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE27">
         <v>2</v>
       </c>
       <c r="AF27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG27">
         <v>2</v>
@@ -3493,7 +3484,7 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>2016</v>
@@ -3571,16 +3562,16 @@
         <v>1</v>
       </c>
       <c r="AB28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE28">
         <v>2</v>
       </c>
       <c r="AF28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG28">
         <v>2</v>
@@ -3588,7 +3579,7 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>2002</v>
@@ -3669,13 +3660,13 @@
         <v>1</v>
       </c>
       <c r="AD29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE29">
         <v>2</v>
       </c>
       <c r="AF29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG29">
         <v>2</v>
@@ -3683,7 +3674,7 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>2001</v>
@@ -3764,13 +3755,13 @@
         <v>1</v>
       </c>
       <c r="AD30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE30">
         <v>2</v>
       </c>
       <c r="AF30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG30">
         <v>2</v>
@@ -3778,7 +3769,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>2005</v>
@@ -3859,13 +3850,13 @@
         <v>1</v>
       </c>
       <c r="AD31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE31">
         <v>2</v>
       </c>
       <c r="AF31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG31">
         <v>2</v>
@@ -3873,7 +3864,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32">
         <v>2007</v>
@@ -3954,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="AD32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE32">
         <v>2</v>
       </c>
       <c r="AF32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG32">
         <v>2</v>
@@ -3968,7 +3959,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33">
         <v>2005</v>
@@ -4049,13 +4040,13 @@
         <v>0</v>
       </c>
       <c r="AC33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE33">
         <v>2</v>
       </c>
       <c r="AF33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG33">
         <v>2</v>
@@ -4063,7 +4054,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>2006</v>
@@ -4144,16 +4135,16 @@
         <v>0</v>
       </c>
       <c r="AB34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE34">
         <v>2</v>
       </c>
       <c r="AF34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG34">
         <v>2</v>
@@ -4161,7 +4152,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35">
         <v>2011</v>
@@ -4242,19 +4233,19 @@
         <v>0</v>
       </c>
       <c r="AB35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE35">
         <v>3</v>
       </c>
       <c r="AF35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG35">
         <v>2</v>
@@ -4262,7 +4253,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>2008</v>
@@ -4343,19 +4334,19 @@
         <v>0</v>
       </c>
       <c r="AB36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE36">
         <v>3</v>
       </c>
       <c r="AF36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG36">
         <v>2</v>
@@ -4363,7 +4354,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37">
         <v>2000</v>
@@ -4444,19 +4435,19 @@
         <v>1</v>
       </c>
       <c r="AB37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE37">
         <v>3</v>
       </c>
       <c r="AF37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG37">
         <v>2</v>
@@ -4464,7 +4455,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38">
         <v>1997</v>
@@ -4545,13 +4536,13 @@
         <v>1</v>
       </c>
       <c r="AB38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE38">
         <v>3</v>
       </c>
       <c r="AF38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG38">
         <v>2</v>
@@ -4559,7 +4550,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39">
         <v>1998</v>
@@ -4640,16 +4631,16 @@
         <v>1</v>
       </c>
       <c r="AB39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE39">
         <v>3</v>
       </c>
       <c r="AF39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG39">
         <v>2</v>
@@ -4657,7 +4648,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40">
         <v>2009</v>
@@ -4738,19 +4729,19 @@
         <v>1</v>
       </c>
       <c r="AB40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE40">
         <v>3</v>
       </c>
       <c r="AF40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG40">
         <v>2</v>
@@ -4758,7 +4749,7 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41">
         <v>2010</v>
@@ -4839,19 +4830,19 @@
         <v>1</v>
       </c>
       <c r="AB41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE41">
         <v>3</v>
       </c>
       <c r="AF41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG41">
         <v>2</v>
@@ -4859,7 +4850,7 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42">
         <v>2005</v>
@@ -4940,16 +4931,16 @@
         <v>0</v>
       </c>
       <c r="AB42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE42">
         <v>3</v>
       </c>
       <c r="AF42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG42">
         <v>2</v>
@@ -4957,7 +4948,7 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43">
         <v>1997</v>
@@ -5038,19 +5029,19 @@
         <v>0</v>
       </c>
       <c r="AB43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE43">
         <v>3</v>
       </c>
       <c r="AF43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG43">
         <v>2</v>
@@ -5058,7 +5049,7 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44">
         <v>2011</v>
@@ -5139,16 +5130,16 @@
         <v>1</v>
       </c>
       <c r="AB44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE44">
         <v>3</v>
       </c>
       <c r="AF44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG44">
         <v>2</v>
@@ -5156,7 +5147,7 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45">
         <v>2009</v>
@@ -5240,13 +5231,13 @@
         <v>0</v>
       </c>
       <c r="AC45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE45">
         <v>4</v>
       </c>
       <c r="AF45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG45">
         <v>2</v>
@@ -5254,7 +5245,7 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46">
         <v>2009</v>
@@ -5338,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="AC46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE46">
         <v>4</v>
       </c>
       <c r="AF46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG46">
         <v>2</v>
@@ -5352,7 +5343,7 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47">
         <v>2016</v>
@@ -5436,13 +5427,13 @@
         <v>0</v>
       </c>
       <c r="AC47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE47">
         <v>4</v>
       </c>
       <c r="AF47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG47">
         <v>2</v>
@@ -5450,7 +5441,7 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48">
         <v>2013</v>
@@ -5534,13 +5525,13 @@
         <v>0</v>
       </c>
       <c r="AC48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE48">
         <v>4</v>
       </c>
       <c r="AF48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG48">
         <v>2</v>
@@ -5548,7 +5539,7 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49">
         <v>2008</v>
@@ -5632,16 +5623,16 @@
         <v>0</v>
       </c>
       <c r="AC49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE49">
         <v>4</v>
       </c>
       <c r="AF49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG49">
         <v>2</v>
@@ -5649,7 +5640,7 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50">
         <v>2016</v>
@@ -5730,19 +5721,19 @@
         <v>1</v>
       </c>
       <c r="AB50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE50">
         <v>4</v>
       </c>
       <c r="AF50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG50">
         <v>2</v>
@@ -5750,7 +5741,7 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51">
         <v>2014</v>
@@ -5831,19 +5822,19 @@
         <v>1</v>
       </c>
       <c r="AB51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE51">
         <v>4</v>
       </c>
       <c r="AF51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG51">
         <v>2</v>
@@ -5851,7 +5842,7 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52">
         <v>2016</v>
@@ -5932,19 +5923,19 @@
         <v>1</v>
       </c>
       <c r="AB52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE52">
         <v>4</v>
       </c>
       <c r="AF52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG52">
         <v>2</v>

--- a/VisDecisionReview/Table2.xlsx
+++ b/VisDecisionReview/Table2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="132">
   <si>
     <t>Year</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>E1perts were more confident with uncertainty data</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;H2&lt;/h2&gt;</t>
   </si>
   <si>
     <t>Authors</t>
@@ -440,12 +446,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -464,8 +476,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -804,14 +817,14 @@
   <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -912,13 +925,13 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1">
         <v>2014</v>
       </c>
-      <c r="C2">
-        <v>67</v>
+      <c r="C2" t="s">
+        <v>130</v>
       </c>
       <c r="D2">
         <v>0</v>

--- a/VisDecisionReview/Table2.xlsx
+++ b/VisDecisionReview/Table2.xlsx
@@ -411,10 +411,10 @@
     <t>test</t>
   </si>
   <si>
-    <t>&lt;h2&gt;H2&lt;/h2&gt;</t>
-  </si>
-  <si>
     <t>Authors</t>
+  </si>
+  <si>
+    <t>&lt;code&gt;&lt;h2&gt;H2&lt;/h2&gt;&lt;/code&gt;</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>2014</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2">
         <v>0</v>
